--- a/HW3_Excel1/HW3_112303081.xlsx
+++ b/HW3_Excel1/HW3_112303081.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\天德\1141_IntroToCS_112303081\HW3_Excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F61AAD5-BF51-4C25-939B-DA5F3C01F830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C6B32-DFA6-403D-A2DC-429E1A738AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -310,7 +310,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -318,16 +318,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -819,6 +809,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EA75-4C39-9AD2-6BEB1B384B57}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -834,6 +829,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EA75-4C39-9AD2-6BEB1B384B57}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2471,7 +2471,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2597,7 +2597,7 @@
         <v>90</v>
       </c>
       <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K16" si="2">_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&lt;60,"F")</f>
+        <f t="shared" ref="K3:K15" si="2">_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&lt;60,"F")</f>
         <v>A</v>
       </c>
       <c r="L3" s="5" t="str">
@@ -3140,7 +3140,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="5">
-        <f>ROUND(AVERAGE(J2:J16,J2:J15),2)</f>
+        <f>ROUND(AVERAGE(J2:J15),2)</f>
         <v>76.87</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -3168,7 +3168,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L2:L15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/HW3_Excel1/HW3_112303081.xlsx
+++ b/HW3_Excel1/HW3_112303081.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\天德\1141_IntroToCS_112303081\HW3_Excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C6B32-DFA6-403D-A2DC-429E1A738AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DCDDD0-F543-410B-A6E3-57CDB5529E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -372,16 +372,22 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Student Overall Scores</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            <a:endParaRPr lang="zh-TW" altLang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -405,9 +411,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-TW"/>
@@ -734,27 +740,36 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Student Pass or fail</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t> on overall score</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -771,16 +786,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-TW"/>
@@ -857,7 +872,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -875,7 +890,7 @@
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -948,6 +963,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2471,7 +2517,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2593,15 +2639,15 @@
         <v>94</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J15" si="1">H3*0.1*5+I3*0.5</f>
+        <f>H3*0.1*5+I3*0.5</f>
         <v>90</v>
       </c>
       <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K15" si="2">_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&lt;60,"F")</f>
+        <f t="shared" ref="K3:K15" si="1">_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&lt;60,"F")</f>
         <v>A</v>
       </c>
       <c r="L3" s="5" t="str">
-        <f t="shared" ref="L3:L15" si="3">IF(J3&gt;60,"Pass","Fail")</f>
+        <f t="shared" ref="L3:L15" si="2">IF(J3&gt;60,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2635,15 +2681,15 @@
         <v>80</v>
       </c>
       <c r="J4" s="5">
+        <f t="shared" ref="J3:J15" si="3">H4*0.1*5+I4*0.5</f>
+        <v>81.2</v>
+      </c>
+      <c r="K4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>81.2</v>
-      </c>
-      <c r="K4" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="L4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L4" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2677,15 +2723,15 @@
         <v>80</v>
       </c>
       <c r="J5" s="5">
+        <f t="shared" si="3"/>
+        <v>80.8</v>
+      </c>
+      <c r="K5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>80.8</v>
-      </c>
-      <c r="K5" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="L5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L5" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2719,15 +2765,15 @@
         <v>88</v>
       </c>
       <c r="J6" s="5">
+        <f t="shared" si="3"/>
+        <v>84.7</v>
+      </c>
+      <c r="K6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>84.7</v>
-      </c>
-      <c r="K6" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="L6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L6" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2761,15 +2807,15 @@
         <v>81</v>
       </c>
       <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>80.800000000000011</v>
+      </c>
+      <c r="K7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>80.800000000000011</v>
-      </c>
-      <c r="K7" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="L7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L7" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2803,15 +2849,15 @@
         <v>77</v>
       </c>
       <c r="J8" s="5">
+        <f>H8*0.1*5+I8*0.5</f>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>77.900000000000006</v>
-      </c>
-      <c r="K8" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="L8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L8" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2845,15 +2891,15 @@
         <v>73</v>
       </c>
       <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>74.2</v>
+      </c>
+      <c r="K9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>74.2</v>
-      </c>
-      <c r="K9" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="L9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L9" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2887,15 +2933,15 @@
         <v>77</v>
       </c>
       <c r="J10" s="5">
+        <f>H10*0.1*5+I10*0.5</f>
+        <v>75.2</v>
+      </c>
+      <c r="K10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>75.2</v>
-      </c>
-      <c r="K10" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="L10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L10" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2929,15 +2975,15 @@
         <v>82</v>
       </c>
       <c r="J11" s="5">
+        <f t="shared" si="3"/>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>77.599999999999994</v>
-      </c>
-      <c r="K11" s="5" t="str">
+        <v>C</v>
+      </c>
+      <c r="L11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L11" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2971,15 +3017,15 @@
         <v>88</v>
       </c>
       <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>80.599999999999994</v>
-      </c>
-      <c r="K12" s="5" t="str">
+        <v>B</v>
+      </c>
+      <c r="L12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L12" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3013,15 +3059,15 @@
         <v>52</v>
       </c>
       <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="K13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="K13" s="5" t="str">
+        <v>F</v>
+      </c>
+      <c r="L13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="L13" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
     </row>
@@ -3055,15 +3101,15 @@
         <v>69</v>
       </c>
       <c r="J14" s="5">
+        <f t="shared" si="3"/>
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>66.900000000000006</v>
-      </c>
-      <c r="K14" s="5" t="str">
+        <v>D</v>
+      </c>
+      <c r="L14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>D</v>
-      </c>
-      <c r="L14" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3097,15 +3143,15 @@
         <v>54</v>
       </c>
       <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>55.6</v>
+      </c>
+      <c r="K15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="K15" s="5" t="str">
+        <v>F</v>
+      </c>
+      <c r="L15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="L15" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
     </row>
